--- a/ERP/Desarrollo/Avance.xlsx
+++ b/ERP/Desarrollo/Avance.xlsx
@@ -27,12 +27,6 @@
     <t>Inventarios</t>
   </si>
   <si>
-    <t>Cuentas por pagar</t>
-  </si>
-  <si>
-    <t>Cuentas por cobrar</t>
-  </si>
-  <si>
     <t>Bancos</t>
   </si>
   <si>
@@ -49,6 +43,12 @@
   </si>
   <si>
     <t>Faltantes</t>
+  </si>
+  <si>
+    <t>Cuentas por Cobrar</t>
+  </si>
+  <si>
+    <t>Cuentas por Pagar</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="B1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -460,18 +460,18 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="B2" s="10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -507,7 +507,7 @@
     </row>
     <row r="5" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="B5" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -519,7 +519,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+    <row r="8" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
@@ -533,9 +533,9 @@
       <c r="B10" s="9"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+    <row r="11" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="B11" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="7"/>
     </row>
@@ -547,9 +547,9 @@
       <c r="B13" s="9"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="B14" s="10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C14" s="7"/>
     </row>
@@ -561,9 +561,9 @@
       <c r="B16" s="9"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="2:3" ht="18.75" thickBot="1">
       <c r="B17" s="10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" s="7"/>
     </row>
@@ -575,9 +575,9 @@
       <c r="B19" s="9"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+    <row r="20" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B20" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="7"/>
     </row>
@@ -591,7 +591,7 @@
     </row>
     <row r="23" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B23" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="7"/>
     </row>
